--- a/organisations.xlsx
+++ b/organisations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+          <t>18 Vinogradnaya Street, Alushta, 298517</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа РАН (ИПНГ РАН)</t>
+          <t>V.A. Trapeznikov Institute of Control Sciences|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>15203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
+          <t>Institute of Seismology and Geodynamics|V.I. Vernadsky Crimean Federal University</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа им. И.М. Губкина</t>
+          <t>Oil and Gas Research Institute Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute of the Russian Academy of Sciences (OGRI RAS)</t>
+          <t>Weatherford</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11374</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Институт энергетической стратегии</t>
+          <t>Oil and Gas Research Institute of RAS</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа (ИПНГ) РАН</t>
+          <t>Institute of Energy Strategy</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13814</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>АО «ТомскНИПИнефть»</t>
+          <t>Gubkin University</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>176</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+          <t>ООО НТФ "Атомбиотех"</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+          <t>РГУ нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Institute of Oil and Gas Problems|Russian Academy of Sciences</t>
+          <t>ФГБУН "Институт проблем нефти и газа РАН"</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gubkin Russian State University of Oil and Gas (National Research University)</t>
+          <t>Oil and Gas Research Institute Russian Academy of Sciences (IPNG RAS)</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа Российской Академии наук (ИПНГ РАН)</t>
+          <t>National University of Oil and Gas ("Gubkin University")</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И.М. Губкина</t>
+          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) им. И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>361</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Институт Проблем Нефти и Газа РАН</t>
+          <t>The Moscow Mining University, NUSTMIS&amp;S</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>533</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|Russian Academy of Sciences</t>
+          <t>Northern (Arctic) Federal University named after M.V. Lomonosov</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Department of Geography|The George Washington University</t>
+          <t>National University of Oil and Gas (Gubkin University)</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+          <t>Oil and Gas Research Institute of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+          <t>IPNG RAN</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа Российской академии наук</t>
+          <t>Gubkin Oil And Gas University</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>7109</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ООО НТФ "Атомбиотех"</t>
+          <t>All-Russian Research Geological Oil Institute</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Геологический институт РАН</t>
+          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ИПНГ РАН</t>
+          <t>Institute of Oil and Gas Problems of RAS</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) им. И.М. Губкина</t>
+          <t>I.M. Sechenov First Moscow State Medical University, the Ministry of Health of the Russian Federation (Sechenov University)</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>327</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Межотраслевой экспертно - аналитический центр Союза Нефтегазопромышленников России</t>
+          <t>Institute of Geography RAS</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
+          <t>Gubkin Russian State University of Oil and Gas (National Research University)</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>870</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Landau Institute for Theoretical Physics|RAS</t>
+          <t>Institute of Oil and Gas Problems of the Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute|RAS</t>
+          <t>National University of Oil and Gas "Gubkin University"</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ФГБУН «Институт проблем нефти и газа Российской академии наук»</t>
+          <t>Институт проблем нефти и газа Российской Академии наук (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Институт теории прогноза землетрясений и математической геофизики РАН</t>
+          <t>ФГБУН Институт проблем нефти и газа РАН</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ФГБУН Институт проблем нефти и газа РАН</t>
+          <t>ИПНГ РАН</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
+          <t>Институт проблем нефти и газа РАН (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>14430</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ФГБУ «Всероссийский научно-исследовательский геологический нефтяной институт»</t>
+          <t>АО “Российские космические системы”</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>570</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute Russian Academy of Sciences (OGRI RAS)</t>
+          <t>АО "Томский научно-исследовательский и проектный институт нефти и газа" (АО "ТомскНИПИнефть")</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>11374</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+          <t>Институт энергетической стратегии</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Тюменский государственный университет</t>
+          <t>Российский государственный университет нефти и газа (НИУ) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Институт Проблем Нефти и Газа Российской Академии Наук</t>
+          <t>Институт проблем нефти и газа Российской Академии Наук (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «РГУ нефти и газа (НИУ) им. И.М. Губкина»</t>
+          <t>Институт проблем нефти и газа Российской академии наук</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа Российской академии наук (ИПНГ РАН)</t>
+          <t>Институт проблем нефти и газа (ИПНГ) РАН</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Российский государственный университет (НИУ) нефти и газа имени И.М. Губкина</t>
+          <t>Российский государственный университет нефти и газа (НИУ) им. И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14552</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ООО «Газпромнефть НТЦ»</t>
+          <t>Oil and Gas Research Institute Russian Academy of Sciences (OGRI RAS)</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ФГБУН «Институт проблем нефти и газа РАН»</t>
+          <t>Oil and Gas Research Institute RAS</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ФГБУН Институт морской геологии и геофизики ДВО РАН</t>
+          <t>Department of Physical and Colloid Chemistry|Gubkin University</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И. М. Губкина</t>
+          <t>Institute of Problems of Oil and Gas|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ООО «Красноярскгазпром нефтегазпроект»</t>
+          <t>Oil &amp;amp; Gas Research Institute of the Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) имени И. М. Губкина</t>
+          <t>Oil and Gas Research Institute of the Russian Academy of Sciences (OGRI RAS)</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>870</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ООО «КБ Стрелка»</t>
+          <t>Landau Institute for Theoretical Physics|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И.М.Губкина</t>
+          <t>Institute of Solid State Physics|Russian Academy of Sciences Academician</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа им. И. М. Губкина</t>
+          <t>Oil and Gas Research Institute|Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute RAS</t>
+          <t>A.N. Nesmeyanov Institute of Organoelement Compounds of Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ФГБУН «Институт проблем нефти и газа Российской академии наук» (ИПНГ РАН)</t>
+          <t>Norilsk State Industrial Institute</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>САФУ</t>
+          <t>ПАО «Татнефть»</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>898</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tyumen Scientifi c Centre, Siberian Branch, Russian Academy of Sciences</t>
+          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>452</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+          <t>Институт нефтехимического синтеза им. А.В. Топчиева РАН</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>19244</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ПАО «Татнефть»</t>
+          <t>Almaty Institute of Power Engineering and Telecommunications</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7655</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Альметьевский государственный нефтяной институт</t>
+          <t>ООО «РН-СахалинНИПИморнефть»</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Пермский национальный исследовательский политехнический университет</t>
+          <t>Российский Государственный Университет нефти  и газа (Национальный Исследовательский Университет) имени И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ФГАОУ ВО «Российский государственный университет нефти и газа (НИУ) имени И.М. Губкина»</t>
+          <t>Российский государственный университет нефти и газа имени И. М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ухтинский государственный технический университет</t>
+          <t>Институт проблем нефти и газа российской академии наук</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>176</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Институт теории прогноза землетрясений и математической геофизики Российской академии наук</t>
+          <t>ООО «Тюменский институт нефти и газа»</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Институт морской геологии и геофизики ДВО РАН</t>
+          <t>Московский государственный университет им. М.В. Ломоносова</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа Российской Академии наук</t>
+          <t>Научно-исследовательский институт физико-химической биологии им. А.Н. Белозерского Московского государственного университета им. М.В. Ломоносова</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+          <t>ФГАОУ ВО «Первый МГМУ им. И. М. Сеченова» Минздрава России</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ФГБОУ ВО «Российский химико-технологический университет им. Д.И. Менделеева»</t>
+          <t>Институт Проблем Нефти и Газа РАН (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>982</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ВНИИОкеангеология</t>
+          <t>Российский государственный геологоразведочный университет имени Серго Орджоникидзе</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа им. Губкина</t>
+          <t>Российский государственный университет нефти и газа им. И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>РГУ нефти и газа (НИУ) им. И.М. Губкина</t>
+          <t>Институт проблем нефти и газа  Российской академии наук</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа (НИУ) им. И.М. Губкина</t>
+          <t>ПАО «НК «Роснефть»</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>570</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ООО "Газпром ВНИИГАЗ"</t>
+          <t>Институт проблем нефти и газа (ИПНГ)РАН</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Oil and Gas Research Institute, Russian Academy of Sciences</t>
+          <t>РГУ нефти и газа им. И.М. Губкина</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>570</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>Институт проблем нефти и газа Российской академии наук (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>898</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ООО «Тюменский нефтяной научный центр»</t>
+          <t>РГУ нефти и газа имени И,М, Губкина</t>
         </is>
       </c>
     </row>
@@ -1566,8 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа 
-Российской академии наук</t>
+          <t>Институт Проблем Нефти и Газа Российской Академии Наук (ИПНГ РАН)</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1576,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>898</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Российский государственный университет нефти и газа им. И.М. Губкина</t>
+          <t>Группа компаний ITPS</t>
         </is>
       </c>
     </row>
@@ -1592,13 +1591,1152 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>364</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Институт проблем нефти и газа
-Российской академии наук</t>
+          <t>Российский химико-технологический университет им. Д.И. Менделеева</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Российский государственный университет нефти и газа (НИУ) имени И.М.Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Российский государственный университет нефти  и газа (национальный исследовательский университет) им. И.М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Wildcat Technologies LLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Альметьевский гос. нефтяной институт</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>НТС ПАО "Газпром"</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>13814</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>АО «ТомскНИПИнефть»</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Institute of Oil and Gas Problems|Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Prokhorov General Physics Institute of the Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ammosov North Eastern Federal University</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Oil and Gas Research Institute of RAS (OGRI RAS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ФГБУН «Институт проблем нефти и газа Российской академии наук»</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ФГАОУ ВО «Российский государственный университет нефти и газа (национальный исследовательский университет) имени И.М. Губкина»</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Хромос Инжиниринг</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Всероссийский научно-исследовательский геологический институт им. А.П. Карпинского</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>РГУ нефти и газа (НИУ) им. И.М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Федеральное государственное бюджетное учреждение науки Институт проблем нефти и газа Российской академии наук</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>6317</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Институт криосферы Земли ТюмНЦ СО РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Институт теории прогноза землетрясений и математической геофизики РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Институт морской геологии и геофизики ДВО РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ООО «Газпром добыча Надым»</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Институт микробиологии им. С.Н. Виноградского, ФИЦ Биотехнологии РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>6317</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ФГБУН ФИЦ Тюменский научный центр СО РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ФГБУН Институт проблем нефти и газа Российской академии наук</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ФГБУН «Институт проблем нефти и газа» РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ФГБУН «Институт проблем нефти и газа РАН»</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Тюменский государственный университет</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Institute of Earthquake Prediction Theory and Mathematical Geophysics|Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Gubkin Russian State University of Oil and Gas</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>George Washington University</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Department of Biotechnology|I. M. Sechenov First Moscow State Medical University</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Landau Institute for Theoretical Physics of the RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Institute of Solid State Physics of the RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Research Oil and Gas Institute|Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Oil and Gas Research Institute|Russian Academy of Sciences (OGRI RAS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14819</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Филиал ООО "ЛУКОЙЛ-Инжиниринг" "КогалымНИПИнефть" в г. Тюмени</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ООО "Хромос Инжиниринг"</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>4750</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ухтинский государственный технический университет</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Gazprom Export</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Scientific Council of RAS on System Research in Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Институт физики Земли им. О.Ю. Шмидта РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ФГБУН «Институт проблем нефти и газа Российской академии наук» (ИПНГ РАН)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Nansen Environmental and Remote Sensing Centre|Bjerknes Centre for Climate Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Institute of Marine Geology and Geophysics|Far East Branch|Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Институт Проблем Нефти и Газа РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Department of Geography|The George Washington University</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>V.B. Sochava Institute of Geography|Siberian Branch of Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Frumkin Institute of Physical Chemistry and Electrochemistry|Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Геологический институт РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Межотраслевой экспертно - аналитический центр Союза Нефтегазопромышленников России</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Российский государственный геологоразведочный университет им. Серго Орджоникидзе</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Landau Institute for Theoretical Physics|RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Oil and Gas Research Institute|RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ФГАОУ ВО «Российский университет дружбы народов»</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ФГАОУ ВО «Тюменский государственный университет»</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Институт Проблем Нефти и Газа Российской Академии Наук</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ФГАОУ ВО «РГУ нефти и газа (НИУ) им. И.М. Губкина»</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Российский государственный университет (НИУ) нефти и газа имени И.М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>14552</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ООО «Газпромнефть НТЦ»</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ФГБУН Институт морской геологии и геофизики ДВО РАН</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И. М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ООО «Красноярскгазпром нефтегазпроект»</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>РГУ нефти и газа (НИУ) имени И. М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ООО «КБ Стрелка»</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Российский государственный университет нефти и газа (национальный исследовательский университет) имени И.М.Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>РГУ нефти и газа им. И. М. Губкина</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>САФУ</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tyumen Scientifi c Centre, Siberian Branch, Russian Academy of Sciences</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ООО Тимано-Печорский научно-исследовательский центр (ООО «ТПНИЦ»)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Альметьевский государственный нефтяной институт</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Пермский национальный исследовательский политехнический университет</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ФГАОУ ВО «Российский государственный университет нефти и газа (НИУ) имени И.М. Губкина»</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Институт теории прогноза землетрясений и математической геофизики Российской академии наук</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Институт проблем нефти и газа Российской Академии наук</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ФГБОУ ВО «Российский химико-технологический университет им. Д.И. Менделеева»</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ВНИИОкеангеология</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Oil and Gas Research Institute, Russian Academy of Sciences</t>
         </is>
       </c>
     </row>
